--- a/assets/temp-excel/Data Order.xlsx
+++ b/assets/temp-excel/Data Order.xlsx
@@ -117,16 +117,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>20230722002</t>
+          <t>20230724001</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>22/07/2023 11:58</t>
+          <t>15/08/2023 21:41</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -140,46 +140,41 @@
         </is>
       </c>
       <c r="F2" s="2">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Tes</t>
+        </is>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>20230722003</t>
+          <t>20230801001</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>22/07/2023 12:42</t>
+          <t>01/08/2023 21:21</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Raihan</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>+6281802136200</t>
+          <t>Ugi</t>
         </is>
       </c>
       <c r="F3" s="2">
-        <v>41000</v>
+        <v>71000</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Beli Greentea 2 Gratis 1</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/assets/temp-excel/Data Order.xlsx
+++ b/assets/temp-excel/Data Order.xlsx
@@ -153,28 +153,447 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>20230729001</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>17/08/2023 18:53</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Raihan</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>+6281802136200</t>
+        </is>
+      </c>
+      <c r="F3" s="2">
+        <v>37000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6000</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Tes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>20230801001</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>01/08/2023 21:21</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Ugi</t>
         </is>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>71000</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>20230817001</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>17/08/2023 14:25</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Raihan</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>+6281802136200</t>
+        </is>
+      </c>
+      <c r="F5" s="2">
+        <v>13000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>20230818001</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>18/08/2023 22:26</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Fauzan</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>+6281802136200</t>
+        </is>
+      </c>
+      <c r="F6" s="2">
+        <v>13000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>20230818002</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>18/08/2023 22:54</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Rizqi </t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>+6281802136200</t>
+        </is>
+      </c>
+      <c r="F7" s="2">
+        <v>15000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>20230818003</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>18/08/2023 22:55</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Orang</t>
+        </is>
+      </c>
+      <c r="F8" s="2">
+        <v>26000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>20230818004</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>18/08/2023 22:56</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Orang</t>
+        </is>
+      </c>
+      <c r="F9" s="2">
+        <v>26000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>20230818005</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>18/08/2023 22:56</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Orang</t>
+        </is>
+      </c>
+      <c r="F10" s="2">
+        <v>26000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>20230818006</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>18/08/2023 22:57</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Orang</t>
+        </is>
+      </c>
+      <c r="F11" s="2">
+        <v>26000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>20230818007</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>18/08/2023 22:57</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Orang</t>
+        </is>
+      </c>
+      <c r="F12" s="2">
+        <v>26000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>20230819001</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>19/08/2023 02:21</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Reeez</t>
+        </is>
+      </c>
+      <c r="F13" s="2">
+        <v>74000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>20230819002</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>19/08/2023 07:57</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Ismail</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>+6281802136200</t>
+        </is>
+      </c>
+      <c r="F14" s="2">
+        <v>42400</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2600</v>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Tes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>20230819003</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:05</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Agam</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>+6281802136200</t>
+        </is>
+      </c>
+      <c r="F15" s="2">
+        <v>26000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>Beli 2 Gratis 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>20230819004</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>19/08/2023 13:11</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Raihan</t>
+        </is>
+      </c>
+      <c r="F16" s="2">
+        <v>39000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>20230819005</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>19/08/2023 13:22</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Pelanggan 1</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>+6281802136200</t>
+        </is>
+      </c>
+      <c r="F17" s="2">
+        <v>81100</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3900</v>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Potongan Harga New</t>
+        </is>
       </c>
     </row>
   </sheetData>
